--- a/QalandarDataset.xlsx
+++ b/QalandarDataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="51">
   <si>
     <t>Team 1</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>71 runs</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -493,7 +502,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -693,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -854,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -923,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1084,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -1130,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1176,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -1222,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -1337,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1538,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -1561,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -1584,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -1607,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -1653,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
         <v>39</v>
@@ -1676,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
@@ -1699,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -1722,7 +1731,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -1745,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
         <v>32</v>
@@ -1768,7 +1777,7 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>44</v>
@@ -1791,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
@@ -1814,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
         <v>47</v>
@@ -1837,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -1860,7 +1869,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -1883,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -1929,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
